--- a/Consultant_Active_Reports/Active_Candidates_James_Cato.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_James_Cato.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +583,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -592,40 +592,40 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RVP Sales East</t>
+          <t>ENT AE East</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TYLER FERRIER</t>
+          <t>Peter Abbott</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45964</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>794</v>
+        <v>725</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Honeycomb</t>
+          <t>Rox</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>VP EMEA</t>
+          <t>RVP Sales East</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>James Tuck</t>
+          <t>TYLER FERRIER</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -634,26 +634,26 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45981</v>
+        <v>45964</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Redwood Software</t>
+          <t>Honeycomb</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Enterprise AE US (Finance Automation)</t>
+          <t>VP EMEA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tom Andrews</t>
+          <t>James Tuck</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45986</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="9">
@@ -695,7 +695,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -704,63 +704,63 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Enterprise AE UK (Finance Automation)</t>
+          <t>Enterprise AE US (Finance Automation)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Eric Caughlin</t>
+          <t>Tom Andrews</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45981</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Navan</t>
+          <t>Redwood Software</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ENT AE (Boston + NYC)</t>
+          <t>Enterprise AE UK (Finance Automation)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tom Andrews</t>
+          <t>Eric Caughlin</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45982</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Navan</t>
+          <t>Redwood Software</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ENT AE (Boston + NYC)</t>
+          <t>Enterprise AE UK (Finance Automation)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -774,62 +774,118 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45985</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rox</t>
+          <t>Navan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sales Engineer (NY / Austin / SF)</t>
+          <t>ENT AE (Boston + NYC)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sasha Singh</t>
+          <t>Sam Bigda-Peyton</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45987</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>811</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Navan</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ENT AE (Boston + NYC)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tom Andrews</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45982</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>829</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Rox</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sales Engineer (NY / Austin / SF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sasha Singh</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>830</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Loop</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Customer Operations Manager</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Geoffre Lavy</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1st Interview</t>
         </is>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F16" s="2" t="n">
         <v>45987</v>
       </c>
     </row>

--- a/Consultant_Active_Reports/Active_Candidates_James_Cato.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_James_Cato.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,251 +562,201 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>721</v>
+        <v>811</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rox</t>
+          <t>Navan</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ENT AE East</t>
+          <t>ENT AE (Boston + NYC)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Charles Robino</t>
+          <t>Tom Andrews</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>794</v>
+        <v>829</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Honeycomb</t>
+          <t>Rox</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>VP EMEA</t>
+          <t>Sales Engineer (NY / Austin / SF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>James Tuck</t>
+          <t>Catherine LaChapelle</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>795</v>
+        <v>829</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Redwood Software</t>
+          <t>Rox</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Enterprise AE US (Finance Automation)</t>
+          <t>Sales Engineer (NY / Austin / SF)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>David McDonald</t>
+          <t>Matthew Vielkind</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4th Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>796</v>
+        <v>829</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Redwood Software</t>
+          <t>Rox</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Enterprise AE UK (Finance Automation)</t>
+          <t>Sales Engineer (NY / Austin / SF)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Eric Caughlin</t>
+          <t>Ryan Kerbs</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>3rd Interview</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>811</v>
+        <v>830</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Navan</t>
+          <t>Loop</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ENT AE (Boston + NYC)</t>
+          <t>Customer Operations Manager</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tom Andrews</t>
+          <t>Geoffre Lavy</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rox</t>
+          <t>Loop</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sales Engineer (NY / Austin / SF)</t>
+          <t>Customer Operations Manager</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Catherine LaChapelle</t>
+          <t>Gilbert Pasquale</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rox</t>
+          <t>Loop</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sales Engineer (NY / Austin / SF)</t>
+          <t>Customer Operations Manager</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ryan Kerbs</t>
+          <t>Pat Ingersoll</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>830</v>
+        <v>873</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Loop</t>
+          <t>CodeRabbit</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Customer Operations Manager</t>
+          <t>VP Enterprise Sales</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Geoffre Lavy</t>
+          <t>Andrew Sweet</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>830</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Loop</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Customer Operations Manager</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Gilbert Pasquale</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2nd Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>830</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Loop</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Customer Operations Manager</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Pat Ingersoll</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
